--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:07:07+00:00</t>
+    <t>2022-02-23T10:14:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:14:18+00:00</t>
+    <t>2022-02-23T10:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:23:47+00:00</t>
+    <t>2022-02-23T10:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:42:10+00:00</t>
+    <t>2022-02-23T10:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:49:18+00:00</t>
+    <t>2022-02-23T11:09:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:09:08+00:00</t>
+    <t>2022-02-23T11:19:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-composition</t>
+    <t>http://simplifier.net/ISiK/StructureDefinition/bw-lab-composition</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:19:10+00:00</t>
+    <t>2022-02-23T11:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -647,7 +647,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-patient)
+    <t xml:space="preserve">Reference(http://simplifier.net/ISiK/StructureDefinition/bw-patient)
 </t>
   </si>
   <si>
@@ -743,7 +743,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-practitioner)
+    <t xml:space="preserve">Reference(http://simplifier.net/ISiK/StructureDefinition/bw-practitioner)
 </t>
   </si>
   <si>
@@ -1383,7 +1383,7 @@
     <t>Lab Task</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-task)
+    <t xml:space="preserve">Reference(http://simplifier.net/ISiK/StructureDefinition/bw-lab-task)
 </t>
   </si>
   <si>
@@ -1393,7 +1393,7 @@
     <t>Lab Orders</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-basic-service-request)
+    <t xml:space="preserve">Reference(http://simplifier.net/ISiK/StructureDefinition/bw-basic-service-request)
 </t>
   </si>
   <si>
@@ -1403,7 +1403,7 @@
     <t>Results</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-diagnostic-report)
+    <t xml:space="preserve">Reference(http://simplifier.net/ISiK/StructureDefinition/bw-lab-diagnostic-report)
 </t>
   </si>
 </sst>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:46:26+00:00</t>
+    <t>2022-02-23T12:05:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:05:26+00:00</t>
+    <t>2022-02-23T12:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>B-TECHBW</t>
+    <t>gematik</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:18:43+00:00</t>
+    <t>2022-02-23T12:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:22:10+00:00</t>
+    <t>2022-02-23T12:27:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T07:35:42+00:00</t>
+    <t>2022-03-07T07:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
